--- a/src/test/java/Subscriptions/Data/Equity_Order_Subscription.xlsx
+++ b/src/test/java/Subscriptions/Data/Equity_Order_Subscription.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajmal.syed.LOGICIELSERVICE\eclipse-workspace\OMS_API\src\test\java\Subscriptions\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_OMSAPI\src\test\java\Subscriptions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71003195-58FF-470C-8EA5-56737CD4CACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A02A0E-56AA-48A4-BBA1-25EEC19694DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="555" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="555" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="SubscribeActiveEquityOrder" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="114">
   <si>
     <t>Content_Type</t>
   </si>
@@ -331,12 +331,6 @@
     <t>222.0</t>
   </si>
   <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>TestCases</t>
   </si>
   <si>
@@ -368,6 +362,27 @@
   </si>
   <si>
     <t>Subscribe_Rejected_EquityOrder_TC0005</t>
+  </si>
+  <si>
+    <t>Subscribe_BuyFilled_EquityOrder_TC0002</t>
+  </si>
+  <si>
+    <t>Subscribe_BuyFilled_EquityOrder_TC0003</t>
+  </si>
+  <si>
+    <t>Subscribe_BuyFilled_EquityOrder_TC0004</t>
+  </si>
+  <si>
+    <t>Subscribe_BuyFilled_EquityOrder_TC0005</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>STOP LMT</t>
   </si>
 </sst>
 </file>
@@ -435,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -452,6 +467,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F97819-0497-470B-932D-7124C01F5F73}">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -909,7 +927,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1014,15 +1032,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7911E68-4B4D-4A1A-97F7-2D36687CC9A5}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="49.28515625" style="6" customWidth="1"/>
@@ -1059,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
@@ -1160,7 +1178,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -1180,7 +1198,7 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
       <c r="I2" s="3">
@@ -1198,11 +1216,11 @@
       <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>97</v>
+      <c r="N2" s="7">
+        <v>40</v>
+      </c>
+      <c r="O2" s="7">
+        <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>83</v>
@@ -1231,8 +1249,8 @@
       <c r="X2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>97</v>
+      <c r="Y2" s="7">
+        <v>4</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>88</v>
@@ -1259,7 +1277,412 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="O3" s="7">
+        <v>200</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>200</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="O4" s="7">
+        <v>200</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>200</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>200</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1323,7 +1746,7 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>24</v>
@@ -1505,7 +1928,7 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -1734,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -1835,7 +2258,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -1969,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2067,7 +2490,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2165,7 +2588,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -2263,7 +2686,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2361,7 +2784,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -2459,7 +2882,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -2582,7 +3005,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2602,7 +3025,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
